--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_04_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_04_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mr.Nothing helps a little girl escape and manages to meet up with Kroos. Saga, Dawn, and Lava take a moment of respite in the pawn shop. Dawn seems to know something.
+    <t xml:space="preserve">Mr. Nothing helps a little girl escape and manages to meet up with Kroos. Saga, Dawn, and Lava take a moment of respite in the pawn shop. Dawn seems to know something.
 </t>
   </si>
   <si>
